--- a/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_407__Reeval_LHS_Modell_1.3.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_LHS_Modell_1.3_KS_Holdout_seed_0/metrics/Trial_407__Reeval_LHS_Modell_1.3.xlsx
@@ -5897,7 +5897,7 @@
                   <c:v>71.64604187011719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>64.54996490478516</c:v>
+                  <c:v>64.54995727539062</c:v>
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>64.38462066650391</c:v>
@@ -5963,7 +5963,7 @@
                   <c:v>63.37490081787109</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>62.34144592285156</c:v>
+                  <c:v>62.34143829345703</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>68.91271209716797</c:v>
@@ -5993,7 +5993,7 @@
                   <c:v>72.55947113037109</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>67.87362670898438</c:v>
+                  <c:v>67.87363433837891</c:v>
                 </c:pt>
                 <c:pt idx="41">
                   <c:v>70.97872161865234</c:v>
@@ -6092,7 +6092,7 @@
                   <c:v>67.00860595703125</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>62.6971435546875</c:v>
+                  <c:v>62.69713592529297</c:v>
                 </c:pt>
                 <c:pt idx="74">
                   <c:v>70.26346588134766</c:v>
@@ -7091,7 +7091,7 @@
         <v>57.1515</v>
       </c>
       <c r="F10">
-        <v>64.54996490478516</v>
+        <v>64.54995727539062</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -7531,7 +7531,7 @@
         <v>70.952</v>
       </c>
       <c r="F32">
-        <v>62.34144592285156</v>
+        <v>62.34143829345703</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7731,7 +7731,7 @@
         <v>66.3913</v>
       </c>
       <c r="F42">
-        <v>67.87362670898438</v>
+        <v>67.87363433837891</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -8391,7 +8391,7 @@
         <v>72.8365</v>
       </c>
       <c r="F75">
-        <v>62.6971435546875</v>
+        <v>62.69713592529297</v>
       </c>
     </row>
     <row r="76" spans="1:6">
